--- a/problems/demands/0226.xlsx
+++ b/problems/demands/0226.xlsx
@@ -740,13 +740,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="4">
-        <v>377</v>
+        <v>281</v>
       </c>
       <c r="C17" s="4">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D17" s="4">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -754,13 +754,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="4">
-        <v>1033</v>
+        <v>1334</v>
       </c>
       <c r="C18" s="4">
-        <v>533</v>
+        <v>677</v>
       </c>
       <c r="D18" s="4">
-        <v>65</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -768,13 +768,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="4">
-        <v>1523</v>
+        <v>1343</v>
       </c>
       <c r="C19" s="4">
-        <v>908</v>
+        <v>865</v>
       </c>
       <c r="D19" s="4">
-        <v>169</v>
+        <v>274</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
@@ -782,13 +782,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="4">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="C20" s="4">
-        <v>122</v>
+        <v>249</v>
       </c>
       <c r="D20" s="4">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
@@ -796,13 +796,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="4">
-        <v>1265</v>
+        <v>367</v>
       </c>
       <c r="C21" s="4">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="D21" s="4">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
@@ -810,13 +810,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="4">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="C22" s="4">
-        <v>209</v>
+        <v>444</v>
       </c>
       <c r="D22" s="4">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">

--- a/problems/demands/0226.xlsx
+++ b/problems/demands/0226.xlsx
@@ -908,7 +908,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="4">
-        <v>704</v>
+        <v>0</v>
       </c>
       <c r="C29" s="4">
         <v>407</v>
@@ -922,7 +922,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="4">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="C30" s="4">
         <v>234</v>
